--- a/MT-SAMA5D2X V7.0/MT-ATSAMA5D2x-A核心板BOM.xlsx
+++ b/MT-SAMA5D2X V7.0/MT-ATSAMA5D2x-A核心板BOM.xlsx
@@ -579,10 +579,6 @@
   <si>
     <t>R0402,6.8kR, ±1%,1/16W,RoHS,风华</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R180 R181</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R0402,1.5MR, ±1%,1/16W,RoHS,风华</t>
@@ -873,10 +869,6 @@
       </rPr>
       <t xml:space="preserve"> R158</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">R1 R125 R126 R182 R306 R309 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1097,6 +1089,14 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R125 R126 R182 R306 R309 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1 R180 R181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1778,59 +1778,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1864,38 +1834,68 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="112">
@@ -2304,8 +2304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="24.95" customHeight="1"/>
@@ -2321,14 +2321,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A1" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="A1" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
       <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="24.95" customHeight="1">
@@ -2363,10 +2363,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>212</v>
+        <v>185</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>210</v>
       </c>
       <c r="F3" s="20">
         <v>82</v>
@@ -2374,7 +2374,7 @@
       <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:7" ht="27" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2384,7 +2384,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>117</v>
@@ -2395,7 +2395,7 @@
       <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2416,7 +2416,7 @@
       <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:7" ht="30.75" customHeight="1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2426,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>120</v>
@@ -2437,7 +2437,7 @@
       <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:7" ht="30.75" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2447,10 +2447,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>209</v>
+        <v>188</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>207</v>
       </c>
       <c r="F7" s="20">
         <v>1</v>
@@ -2458,7 +2458,7 @@
       <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2468,7 +2468,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>75</v>
@@ -2479,7 +2479,7 @@
       <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="31" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2489,7 +2489,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>121</v>
@@ -2500,7 +2500,7 @@
       <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2521,7 +2521,7 @@
       <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2542,7 +2542,7 @@
       <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2552,39 +2552,39 @@
         <v>2</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>210</v>
+        <v>191</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>208</v>
       </c>
       <c r="F12" s="20">
         <v>10</v>
       </c>
       <c r="G12" s="27"/>
     </row>
-    <row r="13" spans="1:7" s="37" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="B13" s="30" t="s">
+    <row r="13" spans="1:7" s="35" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A13" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="F13" s="36">
+      <c r="E13" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="34">
         <v>1</v>
       </c>
-      <c r="G13" s="36"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2596,8 +2596,8 @@
       <c r="D14" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>206</v>
+      <c r="E14" s="29" t="s">
+        <v>205</v>
       </c>
       <c r="F14" s="20">
         <v>10</v>
@@ -2605,7 +2605,7 @@
       <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2617,8 +2617,8 @@
       <c r="D15" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E15" s="31" t="s">
-        <v>211</v>
+      <c r="E15" s="29" t="s">
+        <v>209</v>
       </c>
       <c r="F15" s="20">
         <v>5</v>
@@ -2626,7 +2626,7 @@
       <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2647,7 +2647,7 @@
       <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:7" ht="39.75" customHeight="1">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2659,8 +2659,8 @@
       <c r="D17" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="31" t="s">
-        <v>208</v>
+      <c r="E17" s="29" t="s">
+        <v>206</v>
       </c>
       <c r="F17" s="20">
         <v>9</v>
@@ -2668,7 +2668,7 @@
       <c r="G17" s="27"/>
     </row>
     <row r="18" spans="1:7" ht="35.25" customHeight="1">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2689,7 +2689,7 @@
       <c r="G18" s="27"/>
     </row>
     <row r="19" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2710,7 +2710,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2731,7 +2731,7 @@
       <c r="G20" s="27"/>
     </row>
     <row r="21" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2752,7 +2752,7 @@
       <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2773,7 +2773,7 @@
       <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:7" ht="27" customHeight="1">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2785,16 +2785,16 @@
       <c r="D23" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E23" s="31" t="s">
-        <v>207</v>
+      <c r="E23" s="29" t="s">
+        <v>242</v>
       </c>
       <c r="F23" s="20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G23" s="27"/>
     </row>
     <row r="24" spans="1:7" ht="33" customHeight="1">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2806,8 +2806,8 @@
       <c r="D24" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E24" s="31" t="s">
-        <v>205</v>
+      <c r="E24" s="29" t="s">
+        <v>204</v>
       </c>
       <c r="F24" s="20">
         <v>2</v>
@@ -2815,7 +2815,7 @@
       <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2827,8 +2827,8 @@
       <c r="D25" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E25" s="31" t="s">
-        <v>234</v>
+      <c r="E25" s="29" t="s">
+        <v>232</v>
       </c>
       <c r="F25" s="20">
         <v>2</v>
@@ -2836,7 +2836,7 @@
       <c r="G25" s="27"/>
     </row>
     <row r="26" spans="1:7" ht="30.75" customHeight="1">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2848,37 +2848,37 @@
       <c r="D26" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E26" s="31" t="s">
-        <v>204</v>
+      <c r="E26" s="29" t="s">
+        <v>203</v>
       </c>
       <c r="F26" s="20">
         <v>2</v>
       </c>
       <c r="G26" s="27"/>
     </row>
-    <row r="27" spans="1:7" s="37" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A27" s="33" t="s">
+    <row r="27" spans="1:7" s="35" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A27" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="34">
         <v>8</v>
       </c>
-      <c r="G27" s="36"/>
+      <c r="G27" s="34"/>
     </row>
     <row r="28" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2899,7 +2899,7 @@
       <c r="G28" s="27"/>
     </row>
     <row r="29" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2920,7 +2920,7 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2941,7 +2941,7 @@
       <c r="G30" s="27"/>
     </row>
     <row r="31" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="31" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2953,8 +2953,8 @@
       <c r="D31" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E31" s="31" t="s">
-        <v>213</v>
+      <c r="E31" s="29" t="s">
+        <v>211</v>
       </c>
       <c r="F31" s="20">
         <v>11</v>
@@ -2962,7 +2962,7 @@
       <c r="G31" s="27"/>
     </row>
     <row r="32" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="31" t="s">
         <v>67</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2974,8 +2974,8 @@
       <c r="D32" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="31" t="s">
-        <v>203</v>
+      <c r="E32" s="29" t="s">
+        <v>202</v>
       </c>
       <c r="F32" s="20">
         <v>4</v>
@@ -2983,7 +2983,7 @@
       <c r="G32" s="27"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="31" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3004,7 +3004,7 @@
       <c r="G33" s="27"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3025,7 +3025,7 @@
       <c r="G34" s="27"/>
     </row>
     <row r="35" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3037,16 +3037,16 @@
       <c r="D35" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>160</v>
+      <c r="E35" s="29" t="s">
+        <v>243</v>
       </c>
       <c r="F35" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" s="27"/>
     </row>
     <row r="36" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="31" t="s">
         <v>68</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3056,10 +3056,10 @@
         <v>3</v>
       </c>
       <c r="D36" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="F36" s="20">
         <v>1</v>
@@ -3067,7 +3067,7 @@
       <c r="G36" s="27"/>
     </row>
     <row r="37" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="31" t="s">
         <v>69</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3077,10 +3077,10 @@
         <v>3</v>
       </c>
       <c r="D37" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="F37" s="20">
         <v>1</v>
@@ -3088,17 +3088,17 @@
       <c r="G37" s="27"/>
     </row>
     <row r="38" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="65" t="s">
-        <v>239</v>
+      <c r="B38" s="53" t="s">
+        <v>237</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>82</v>
@@ -3109,20 +3109,20 @@
       <c r="G38" s="27"/>
     </row>
     <row r="39" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="30" t="s">
-        <v>240</v>
+      <c r="B39" s="28" t="s">
+        <v>238</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="F39" s="20">
         <v>9</v>
@@ -3130,7 +3130,7 @@
       <c r="G39" s="27"/>
     </row>
     <row r="40" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B40" s="2"/>
@@ -3138,10 +3138,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F40" s="20">
         <v>1</v>
@@ -3149,17 +3149,17 @@
       <c r="G40" s="27"/>
     </row>
     <row r="41" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="30" t="s">
-        <v>241</v>
+      <c r="B41" s="28" t="s">
+        <v>239</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>76</v>
@@ -3170,20 +3170,20 @@
       <c r="G41" s="27"/>
     </row>
     <row r="42" spans="1:7" ht="33" customHeight="1">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>228</v>
+      <c r="B42" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>226</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F42" s="20">
         <v>2</v>
@@ -3191,18 +3191,18 @@
       <c r="G42" s="27"/>
     </row>
     <row r="43" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>238</v>
+        <v>199</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>236</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F43" s="20">
         <v>7</v>
@@ -3210,20 +3210,20 @@
       <c r="G43" s="27"/>
     </row>
     <row r="44" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="D44" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="C44" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="D44" s="64" t="s">
-        <v>233</v>
-      </c>
       <c r="E44" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F44" s="27">
         <v>1</v>
@@ -3231,20 +3231,20 @@
       <c r="G44" s="27"/>
     </row>
     <row r="45" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="D45" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="C45" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="D45" s="64" t="s">
-        <v>225</v>
-      </c>
       <c r="E45" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F45" s="27">
         <v>1</v>
@@ -3252,20 +3252,20 @@
       <c r="G45" s="27"/>
     </row>
     <row r="46" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="C46" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="32" t="s">
-        <v>202</v>
-      </c>
       <c r="E46" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F46" s="20">
         <v>2</v>
@@ -3273,7 +3273,7 @@
       <c r="G46" s="27"/>
     </row>
     <row r="47" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3282,11 +3282,11 @@
       <c r="C47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="58" t="s">
-        <v>214</v>
+      <c r="D47" s="46" t="s">
+        <v>212</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F47" s="20">
         <v>3</v>
@@ -3294,7 +3294,7 @@
       <c r="G47" s="27"/>
     </row>
     <row r="48" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="31" t="s">
         <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3303,8 +3303,8 @@
       <c r="C48" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="34" t="s">
-        <v>215</v>
+      <c r="D48" s="32" t="s">
+        <v>213</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>80</v>
@@ -3315,18 +3315,18 @@
       <c r="G48" s="27"/>
     </row>
     <row r="49" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="32" t="s">
-        <v>230</v>
+      <c r="D49" s="30" t="s">
+        <v>228</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F49" s="25">
         <v>1</v>
@@ -3334,7 +3334,7 @@
       <c r="G49" s="27"/>
     </row>
     <row r="50" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="31" t="s">
         <v>36</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -3344,10 +3344,10 @@
         <v>87</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F50" s="20">
         <v>1</v>
@@ -3355,91 +3355,91 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:8" s="24" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="D51" s="53" t="s">
+      <c r="D51" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="E51" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="F51" s="41">
+        <v>1</v>
+      </c>
+      <c r="G51" s="63" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="24" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A52" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="45"/>
+      <c r="C52" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="E52" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="E51" s="52" t="s">
+      <c r="F52" s="41">
+        <v>1</v>
+      </c>
+      <c r="G52" s="64"/>
+    </row>
+    <row r="53" spans="1:8" ht="32.25" customHeight="1">
+      <c r="A53" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="E53" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="F51" s="51">
-        <v>1</v>
-      </c>
-      <c r="G51" s="57" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="24" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A52" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="54" t="s">
+      <c r="F53" s="36">
+        <v>2</v>
+      </c>
+      <c r="G53" s="65" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="32.25" customHeight="1">
+      <c r="A54" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="40"/>
+      <c r="C54" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D52" s="53" t="s">
-        <v>229</v>
-      </c>
-      <c r="E52" s="52" t="s">
-        <v>218</v>
-      </c>
-      <c r="F52" s="51">
-        <v>1</v>
-      </c>
-      <c r="G52" s="56"/>
-    </row>
-    <row r="53" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A53" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="E53" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="F53" s="46">
+      <c r="D54" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54" s="36">
         <v>2</v>
       </c>
-      <c r="G53" s="45" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A54" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" s="50"/>
-      <c r="C54" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="E54" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="F54" s="46">
-        <v>2</v>
-      </c>
-      <c r="G54" s="44"/>
+      <c r="G54" s="66"/>
     </row>
     <row r="55" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="31" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -3449,10 +3449,10 @@
         <v>87</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F55" s="20">
         <v>1</v>
@@ -3460,17 +3460,17 @@
       <c r="G55" s="27"/>
     </row>
     <row r="56" spans="1:8" s="24" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="31" t="s">
         <v>42</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C56" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="29" t="s">
         <v>182</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>183</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>81</v>
@@ -3481,7 +3481,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="31" t="s">
         <v>43</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -3490,11 +3490,11 @@
       <c r="C57" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D57" s="61" t="s">
-        <v>237</v>
+      <c r="D57" s="49" t="s">
+        <v>235</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F57" s="20">
         <v>1</v>
@@ -3502,7 +3502,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="31" t="s">
         <v>44</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -3511,8 +3511,8 @@
       <c r="C58" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D58" s="32" t="s">
-        <v>222</v>
+      <c r="D58" s="30" t="s">
+        <v>220</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="20">
@@ -3521,38 +3521,38 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A59" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="41"/>
+      <c r="A59" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="59"/>
     </row>
     <row r="60" spans="1:8" ht="54" customHeight="1">
-      <c r="A60" s="40"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="38"/>
+      <c r="A60" s="60"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="62"/>
     </row>
     <row r="61" spans="1:8" s="16" customFormat="1" ht="27.75" customHeight="1">
       <c r="A61" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="13" t="s">
         <v>176</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>177</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="14"/>
@@ -3563,14 +3563,14 @@
         <v>45</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>180</v>
       </c>
       <c r="F62" s="13"/>
       <c r="G62" s="14"/>
@@ -3612,5 +3612,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>